--- a/server/resource/excel/ExcelImport.xlsx
+++ b/server/resource/excel/ExcelImport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E71E-CEDE-4383-8B66-A95FE11F0809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B4DEA-7031-4E7C-9AA6-DB519C406696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>父节点</t>
   </si>
   <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>文件名称</t>
   </si>
   <si>
@@ -42,20 +45,13 @@
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +60,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -96,9 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,7 +365,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,11 +386,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -410,47 +398,25 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
